--- a/experiment/sequences/game1/slf11.xlsx
+++ b/experiment/sequences/game1/slf11.xlsx
@@ -1,43 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shirokumanodon/Documents/Experiment/research/experiment/sequences/game1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2854E0-DC75-5142-8795-B89D047E58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="19200" windowHeight="10000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="10000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="condition" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="condition" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>slf_condition</t>
+  </si>
+  <si>
+    <t>slf_pair_pat</t>
+  </si>
+  <si>
+    <t>slf_order_pat</t>
+  </si>
+  <si>
+    <t>slf_conf_pat</t>
+  </si>
+  <si>
+    <t>slf_reward_left</t>
+  </si>
+  <si>
+    <t>slf_reward_right</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
-      <family val="2"/>
-      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,96 +82,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,287 +408,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="10.85546875" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.28515625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13.42578125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="14.42578125" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="10.85546875" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="5" bestFit="1" customWidth="1" style="1" min="8" max="11"/>
-    <col width="5.85546875" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>slf_condition</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>slf_pair_pat</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>slf_order_pat</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>slf_conf_pat</t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>slf_reward_left</t>
-        </is>
-      </c>
-      <c r="F1" s="0" t="inlineStr">
-        <is>
-          <t>slf_reward_right</t>
-        </is>
-      </c>
-      <c r="I1" s="0" t="n"/>
-      <c r="J1" s="0" t="n"/>
-      <c r="K1" s="0" t="n"/>
-      <c r="L1" s="0" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
         <v>33</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="3">
         <v>38</v>
       </c>
-      <c r="G2" s="0" t="n"/>
-      <c r="H2" s="0" t="n"/>
-      <c r="I2" s="0" t="n"/>
-      <c r="J2" s="0" t="n"/>
-      <c r="K2" s="0" t="n"/>
-      <c r="L2" s="0" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="n">
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>61</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="3">
         <v>41</v>
       </c>
-      <c r="G3" s="0" t="n"/>
-      <c r="H3" s="0" t="n"/>
-      <c r="I3" s="0" t="n"/>
-      <c r="J3" s="0" t="n"/>
-      <c r="K3" s="0" t="n"/>
-      <c r="L3" s="0" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="n">
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
         <v>51</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="3">
         <v>24</v>
       </c>
-      <c r="I4" s="0" t="n"/>
-      <c r="J4" s="0" t="n"/>
-      <c r="K4" s="0" t="n"/>
-      <c r="L4" s="0" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="3">
         <v>49</v>
       </c>
-      <c r="I5" s="0" t="n"/>
-      <c r="J5" s="0" t="n"/>
-      <c r="K5" s="0" t="n"/>
-      <c r="L5" s="0" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
         <v>44</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="3">
         <v>27</v>
       </c>
-      <c r="I6" s="0" t="n"/>
-      <c r="J6" s="0" t="n"/>
-      <c r="K6" s="0" t="n"/>
-      <c r="L6" s="0" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="n">
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="n">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>25</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="3">
         <v>63</v>
       </c>
-      <c r="I7" s="0" t="n"/>
-      <c r="J7" s="0" t="n"/>
-      <c r="K7" s="0" t="n"/>
-      <c r="L7" s="0" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="n">
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>19</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="3">
         <v>45</v>
       </c>
-      <c r="I8" s="0" t="n"/>
-      <c r="J8" s="0" t="n"/>
-      <c r="K8" s="0" t="n"/>
-      <c r="L8" s="0" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5" t="n">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
         <v>47</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="3">
         <v>24</v>
       </c>
-      <c r="I9" s="0" t="n"/>
-      <c r="J9" s="0" t="n"/>
-      <c r="K9" s="0" t="n"/>
-      <c r="L9" s="0" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>50</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="3">
         <v>45</v>
       </c>
-      <c r="I10" s="0" t="n"/>
-      <c r="J10" s="0" t="n"/>
-      <c r="K10" s="0" t="n"/>
-      <c r="L10" s="0" t="n"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>